--- a/Minuevoarchivo.xlsx
+++ b/Minuevoarchivo.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -45,9 +47,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -446,7 +449,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>04/06/21</t>
+          <t>Fecha personalizada</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Fecha Ajustada</t>
         </is>
       </c>
     </row>
@@ -461,10 +469,11 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>04/06/21</t>
-        </is>
+      <c r="C2" s="1" t="n">
+        <v>42644.99306712964</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>44292.01574425546</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +487,11 @@
           <t>4.5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>04/06/21</t>
-        </is>
+      <c r="C3" s="1" t="n">
+        <v>42644.99306712964</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>44292.01574425546</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +505,12 @@
           <t>3.3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n"/>
+      <c r="C4" s="1" t="n">
+        <v>42644.99306712964</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44292.01574425546</v>
+      </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="n"/>

--- a/Minuevoarchivo.xlsx
+++ b/Minuevoarchivo.xlsx
@@ -47,10 +47,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -457,6 +458,11 @@
           <t>Fecha Ajustada</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Fecha Ajustada</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -473,7 +479,10 @@
         <v>42644.99306712964</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44292.01574425546</v>
+        <v>44292.03461780401</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.2429511384259259</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +500,10 @@
         <v>42644.99306712964</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44292.01574425546</v>
+        <v>44292.03461780401</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.2429511384259259</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +521,10 @@
         <v>42644.99306712964</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44292.01574425546</v>
+        <v>44292.03461780401</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.2429511384259259</v>
       </c>
     </row>
     <row r="5">

--- a/Minuevoarchivo.xlsx
+++ b/Minuevoarchivo.xlsx
@@ -479,10 +479,10 @@
         <v>42644.99306712964</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44292.03461780401</v>
+        <v>44292.03574979837</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.2429511384259259</v>
+        <v>0.2440831333912037</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         <v>42644.99306712964</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44292.03461780401</v>
+        <v>44292.03574979837</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.2429511384259259</v>
+        <v>0.2440831333912037</v>
       </c>
     </row>
     <row r="4">
@@ -521,10 +521,10 @@
         <v>42644.99306712964</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44292.03461780401</v>
+        <v>44292.03574979837</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.2429511384259259</v>
+        <v>0.2440831333912037</v>
       </c>
     </row>
     <row r="5">

--- a/Minuevoarchivo.xlsx
+++ b/Minuevoarchivo.xlsx
@@ -479,10 +479,10 @@
         <v>42644.99306712964</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44292.03574979837</v>
+        <v>44292.03638697678</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.2440831333912037</v>
+        <v>0.2447203116435185</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         <v>42644.99306712964</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44292.03574979837</v>
+        <v>44292.03638697678</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.2440831333912037</v>
+        <v>0.2447203116435185</v>
       </c>
     </row>
     <row r="4">
@@ -521,10 +521,10 @@
         <v>42644.99306712964</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44292.03574979837</v>
+        <v>44292.03638697678</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.2440831333912037</v>
+        <v>0.2447203116435185</v>
       </c>
     </row>
     <row r="5">
